--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Robo2-Robo2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Robo2-Robo2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Robo2</t>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.054425</v>
+        <v>0.9052683333333333</v>
       </c>
       <c r="H2">
-        <v>3.163275000000001</v>
+        <v>2.715805</v>
       </c>
       <c r="I2">
-        <v>0.5590543736060203</v>
+        <v>0.5200140314301739</v>
       </c>
       <c r="J2">
-        <v>0.5590543736060203</v>
+        <v>0.5200140314301738</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.054425</v>
+        <v>0.9052683333333333</v>
       </c>
       <c r="N2">
-        <v>3.163275000000001</v>
+        <v>2.715805</v>
       </c>
       <c r="O2">
-        <v>0.5590543736060203</v>
+        <v>0.5200140314301739</v>
       </c>
       <c r="P2">
-        <v>0.5590543736060203</v>
+        <v>0.5200140314301738</v>
       </c>
       <c r="Q2">
-        <v>1.111812080625</v>
+        <v>0.8195107553361112</v>
       </c>
       <c r="R2">
-        <v>10.006308725625</v>
+        <v>7.375596798025001</v>
       </c>
       <c r="S2">
-        <v>0.3125417926480197</v>
+        <v>0.2704145928842619</v>
       </c>
       <c r="T2">
-        <v>0.3125417926480197</v>
+        <v>0.2704145928842618</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.054425</v>
+        <v>0.9052683333333333</v>
       </c>
       <c r="H3">
-        <v>3.163275000000001</v>
+        <v>2.715805</v>
       </c>
       <c r="I3">
-        <v>0.5590543736060203</v>
+        <v>0.5200140314301739</v>
       </c>
       <c r="J3">
-        <v>0.5590543736060203</v>
+        <v>0.5200140314301738</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,22 +620,22 @@
         <v>2.326999</v>
       </c>
       <c r="O3">
-        <v>0.4112569941996302</v>
+        <v>0.4455666482402024</v>
       </c>
       <c r="P3">
-        <v>0.4112569941996302</v>
+        <v>0.4455666482402024</v>
       </c>
       <c r="Q3">
-        <v>0.817881973525</v>
+        <v>0.7021861687994444</v>
       </c>
       <c r="R3">
-        <v>7.360937761725</v>
+        <v>6.319675519194999</v>
       </c>
       <c r="S3">
-        <v>0.229915021283369</v>
+        <v>0.2317009090222178</v>
       </c>
       <c r="T3">
-        <v>0.229915021283369</v>
+        <v>0.2317009090222178</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -640,76 +643,76 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0.9052683333333333</v>
+      </c>
+      <c r="H4">
+        <v>2.715805</v>
+      </c>
+      <c r="I4">
+        <v>0.5200140314301739</v>
+      </c>
+      <c r="J4">
+        <v>0.5200140314301738</v>
+      </c>
+      <c r="K4">
         <v>2</v>
       </c>
-      <c r="F4">
+      <c r="L4">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G4">
-        <v>1.054425</v>
-      </c>
-      <c r="H4">
-        <v>3.163275000000001</v>
-      </c>
-      <c r="I4">
-        <v>0.5590543736060203</v>
-      </c>
-      <c r="J4">
-        <v>0.5590543736060203</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
       <c r="M4">
-        <v>0.05599533333333334</v>
+        <v>0.04422333333333334</v>
       </c>
       <c r="N4">
-        <v>0.167986</v>
+        <v>0.13267</v>
       </c>
       <c r="O4">
-        <v>0.0296886321943495</v>
+        <v>0.02540324564902162</v>
       </c>
       <c r="P4">
-        <v>0.0296886321943495</v>
+        <v>0.02540324564902162</v>
       </c>
       <c r="Q4">
-        <v>0.05904287935000001</v>
+        <v>0.04003398326111111</v>
       </c>
       <c r="R4">
-        <v>0.5313859141500001</v>
+        <v>0.36030584935</v>
       </c>
       <c r="S4">
-        <v>0.01659755967463159</v>
+        <v>0.01321004418135876</v>
       </c>
       <c r="T4">
-        <v>0.01659755967463159</v>
+        <v>0.01321004418135875</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -717,46 +720,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.7756663333333332</v>
+        <v>0.9052683333333333</v>
       </c>
       <c r="H5">
-        <v>2.326999</v>
+        <v>2.715805</v>
       </c>
       <c r="I5">
-        <v>0.4112569941996302</v>
+        <v>0.5200140314301739</v>
       </c>
       <c r="J5">
-        <v>0.4112569941996302</v>
+        <v>0.5200140314301738</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>1.054425</v>
+        <v>0.01569566666666667</v>
       </c>
       <c r="N5">
-        <v>3.163275000000001</v>
+        <v>0.047087</v>
       </c>
       <c r="O5">
-        <v>0.5590543736060203</v>
+        <v>0.009016074680602103</v>
       </c>
       <c r="P5">
-        <v>0.5590543736060203</v>
+        <v>0.009016074680602101</v>
       </c>
       <c r="Q5">
-        <v>0.817881973525</v>
+        <v>0.01420879000388889</v>
       </c>
       <c r="R5">
-        <v>7.360937761725</v>
+        <v>0.127879110035</v>
       </c>
       <c r="S5">
-        <v>0.229915021283369</v>
+        <v>0.004688485342335417</v>
       </c>
       <c r="T5">
-        <v>0.229915021283369</v>
+        <v>0.004688485342335415</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -764,13 +767,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -785,10 +788,10 @@
         <v>2.326999</v>
       </c>
       <c r="I6">
-        <v>0.4112569941996302</v>
+        <v>0.4455666482402024</v>
       </c>
       <c r="J6">
-        <v>0.4112569941996302</v>
+        <v>0.4455666482402024</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -797,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.7756663333333332</v>
+        <v>0.9052683333333333</v>
       </c>
       <c r="N6">
-        <v>2.326999</v>
+        <v>2.715805</v>
       </c>
       <c r="O6">
-        <v>0.4112569941996302</v>
+        <v>0.5200140314301739</v>
       </c>
       <c r="P6">
-        <v>0.4112569941996302</v>
+        <v>0.5200140314301738</v>
       </c>
       <c r="Q6">
-        <v>0.6016582606667776</v>
+        <v>0.7021861687994444</v>
       </c>
       <c r="R6">
-        <v>5.414924346000999</v>
+        <v>6.319675519194999</v>
       </c>
       <c r="S6">
-        <v>0.1691323152781147</v>
+        <v>0.2317009090222178</v>
       </c>
       <c r="T6">
-        <v>0.1691323152781147</v>
+        <v>0.2317009090222178</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -826,13 +829,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -847,10 +850,10 @@
         <v>2.326999</v>
       </c>
       <c r="I7">
-        <v>0.4112569941996302</v>
+        <v>0.4455666482402024</v>
       </c>
       <c r="J7">
-        <v>0.4112569941996302</v>
+        <v>0.4455666482402024</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -859,43 +862,43 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.05599533333333334</v>
+        <v>0.7756663333333332</v>
       </c>
       <c r="N7">
-        <v>0.167986</v>
+        <v>2.326999</v>
       </c>
       <c r="O7">
-        <v>0.0296886321943495</v>
+        <v>0.4455666482402024</v>
       </c>
       <c r="P7">
-        <v>0.0296886321943495</v>
+        <v>0.4455666482402024</v>
       </c>
       <c r="Q7">
-        <v>0.04343369489044444</v>
+        <v>0.6016582606667776</v>
       </c>
       <c r="R7">
-        <v>0.390903254014</v>
+        <v>5.414924346000999</v>
       </c>
       <c r="S7">
-        <v>0.01220965763814655</v>
+        <v>0.1985296380240083</v>
       </c>
       <c r="T7">
-        <v>0.01220965763814655</v>
+        <v>0.1985296380240082</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
         <v>3</v>
       </c>
@@ -903,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.05599533333333334</v>
+        <v>0.7756663333333332</v>
       </c>
       <c r="H8">
-        <v>0.167986</v>
+        <v>2.326999</v>
       </c>
       <c r="I8">
-        <v>0.0296886321943495</v>
+        <v>0.4455666482402024</v>
       </c>
       <c r="J8">
-        <v>0.0296886321943495</v>
+        <v>0.4455666482402024</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -921,43 +924,43 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>1.054425</v>
+        <v>0.04422333333333334</v>
       </c>
       <c r="N8">
-        <v>3.163275000000001</v>
+        <v>0.13267</v>
       </c>
       <c r="O8">
-        <v>0.5590543736060203</v>
+        <v>0.02540324564902162</v>
       </c>
       <c r="P8">
-        <v>0.5590543736060203</v>
+        <v>0.02540324564902162</v>
       </c>
       <c r="Q8">
-        <v>0.05904287935000001</v>
+        <v>0.03430255081444444</v>
       </c>
       <c r="R8">
-        <v>0.5313859141500001</v>
+        <v>0.30872295733</v>
       </c>
       <c r="S8">
-        <v>0.01659755967463159</v>
+        <v>0.01131883901825707</v>
       </c>
       <c r="T8">
-        <v>0.01659755967463159</v>
+        <v>0.01131883901825707</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
         <v>3</v>
       </c>
@@ -965,46 +968,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.05599533333333334</v>
+        <v>0.7756663333333332</v>
       </c>
       <c r="H9">
-        <v>0.167986</v>
+        <v>2.326999</v>
       </c>
       <c r="I9">
-        <v>0.0296886321943495</v>
+        <v>0.4455666482402024</v>
       </c>
       <c r="J9">
-        <v>0.0296886321943495</v>
+        <v>0.4455666482402024</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.7756663333333332</v>
+        <v>0.01569566666666667</v>
       </c>
       <c r="N9">
-        <v>2.326999</v>
+        <v>0.047087</v>
       </c>
       <c r="O9">
-        <v>0.4112569941996302</v>
+        <v>0.009016074680602103</v>
       </c>
       <c r="P9">
-        <v>0.4112569941996302</v>
+        <v>0.009016074680602101</v>
       </c>
       <c r="Q9">
-        <v>0.04343369489044444</v>
+        <v>0.01217460021255555</v>
       </c>
       <c r="R9">
-        <v>0.390903254014</v>
+        <v>0.109571401913</v>
       </c>
       <c r="S9">
-        <v>0.01220965763814655</v>
+        <v>0.004017262175719232</v>
       </c>
       <c r="T9">
-        <v>0.01220965763814655</v>
+        <v>0.004017262175719231</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1012,61 +1015,495 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.04422333333333334</v>
+      </c>
+      <c r="H10">
+        <v>0.13267</v>
+      </c>
+      <c r="I10">
+        <v>0.02540324564902162</v>
+      </c>
+      <c r="J10">
+        <v>0.02540324564902162</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.9052683333333333</v>
+      </c>
+      <c r="N10">
+        <v>2.715805</v>
+      </c>
+      <c r="O10">
+        <v>0.5200140314301739</v>
+      </c>
+      <c r="P10">
+        <v>0.5200140314301738</v>
+      </c>
+      <c r="Q10">
+        <v>0.04003398326111111</v>
+      </c>
+      <c r="R10">
+        <v>0.36030584935</v>
+      </c>
+      <c r="S10">
+        <v>0.01321004418135876</v>
+      </c>
+      <c r="T10">
+        <v>0.01321004418135875</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.04422333333333334</v>
+      </c>
+      <c r="H11">
+        <v>0.13267</v>
+      </c>
+      <c r="I11">
+        <v>0.02540324564902162</v>
+      </c>
+      <c r="J11">
+        <v>0.02540324564902162</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.7756663333333332</v>
+      </c>
+      <c r="N11">
+        <v>2.326999</v>
+      </c>
+      <c r="O11">
+        <v>0.4455666482402024</v>
+      </c>
+      <c r="P11">
+        <v>0.4455666482402024</v>
+      </c>
+      <c r="Q11">
+        <v>0.03430255081444444</v>
+      </c>
+      <c r="R11">
+        <v>0.30872295733</v>
+      </c>
+      <c r="S11">
+        <v>0.01131883901825707</v>
+      </c>
+      <c r="T11">
+        <v>0.01131883901825707</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.04422333333333334</v>
+      </c>
+      <c r="H12">
+        <v>0.13267</v>
+      </c>
+      <c r="I12">
+        <v>0.02540324564902162</v>
+      </c>
+      <c r="J12">
+        <v>0.02540324564902162</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.04422333333333334</v>
+      </c>
+      <c r="N12">
+        <v>0.13267</v>
+      </c>
+      <c r="O12">
+        <v>0.02540324564902162</v>
+      </c>
+      <c r="P12">
+        <v>0.02540324564902162</v>
+      </c>
+      <c r="Q12">
+        <v>0.001955703211111111</v>
+      </c>
+      <c r="R12">
+        <v>0.0176013289</v>
+      </c>
+      <c r="S12">
+        <v>0.000645324889504536</v>
+      </c>
+      <c r="T12">
+        <v>0.0006453248895045359</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.04422333333333334</v>
+      </c>
+      <c r="H13">
+        <v>0.13267</v>
+      </c>
+      <c r="I13">
+        <v>0.02540324564902162</v>
+      </c>
+      <c r="J13">
+        <v>0.02540324564902162</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.01569566666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.047087</v>
+      </c>
+      <c r="O13">
+        <v>0.009016074680602103</v>
+      </c>
+      <c r="P13">
+        <v>0.009016074680602101</v>
+      </c>
+      <c r="Q13">
+        <v>0.0006941146988888889</v>
+      </c>
+      <c r="R13">
+        <v>0.00624703229</v>
+      </c>
+      <c r="S13">
+        <v>0.0002290375599012594</v>
+      </c>
+      <c r="T13">
+        <v>0.0002290375599012593</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="D10" t="s">
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.01569566666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.047087</v>
+      </c>
+      <c r="I14">
+        <v>0.009016074680602103</v>
+      </c>
+      <c r="J14">
+        <v>0.009016074680602101</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.9052683333333333</v>
+      </c>
+      <c r="N14">
+        <v>2.715805</v>
+      </c>
+      <c r="O14">
+        <v>0.5200140314301739</v>
+      </c>
+      <c r="P14">
+        <v>0.5200140314301738</v>
+      </c>
+      <c r="Q14">
+        <v>0.01420879000388889</v>
+      </c>
+      <c r="R14">
+        <v>0.127879110035</v>
+      </c>
+      <c r="S14">
+        <v>0.004688485342335417</v>
+      </c>
+      <c r="T14">
+        <v>0.004688485342335415</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.01569566666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.047087</v>
+      </c>
+      <c r="I15">
+        <v>0.009016074680602103</v>
+      </c>
+      <c r="J15">
+        <v>0.009016074680602101</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.7756663333333332</v>
+      </c>
+      <c r="N15">
+        <v>2.326999</v>
+      </c>
+      <c r="O15">
+        <v>0.4455666482402024</v>
+      </c>
+      <c r="P15">
+        <v>0.4455666482402024</v>
+      </c>
+      <c r="Q15">
+        <v>0.01217460021255555</v>
+      </c>
+      <c r="R15">
+        <v>0.109571401913</v>
+      </c>
+      <c r="S15">
+        <v>0.004017262175719232</v>
+      </c>
+      <c r="T15">
+        <v>0.004017262175719231</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.05599533333333334</v>
-      </c>
-      <c r="H10">
-        <v>0.167986</v>
-      </c>
-      <c r="I10">
-        <v>0.0296886321943495</v>
-      </c>
-      <c r="J10">
-        <v>0.0296886321943495</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.05599533333333334</v>
-      </c>
-      <c r="N10">
-        <v>0.167986</v>
-      </c>
-      <c r="O10">
-        <v>0.0296886321943495</v>
-      </c>
-      <c r="P10">
-        <v>0.0296886321943495</v>
-      </c>
-      <c r="Q10">
-        <v>0.003135477355111112</v>
-      </c>
-      <c r="R10">
-        <v>0.02821929619600001</v>
-      </c>
-      <c r="S10">
-        <v>0.0008814148815713659</v>
-      </c>
-      <c r="T10">
-        <v>0.0008814148815713657</v>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.01569566666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.047087</v>
+      </c>
+      <c r="I16">
+        <v>0.009016074680602103</v>
+      </c>
+      <c r="J16">
+        <v>0.009016074680602101</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.04422333333333334</v>
+      </c>
+      <c r="N16">
+        <v>0.13267</v>
+      </c>
+      <c r="O16">
+        <v>0.02540324564902162</v>
+      </c>
+      <c r="P16">
+        <v>0.02540324564902162</v>
+      </c>
+      <c r="Q16">
+        <v>0.0006941146988888889</v>
+      </c>
+      <c r="R16">
+        <v>0.00624703229</v>
+      </c>
+      <c r="S16">
+        <v>0.0002290375599012594</v>
+      </c>
+      <c r="T16">
+        <v>0.0002290375599012593</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.01569566666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.047087</v>
+      </c>
+      <c r="I17">
+        <v>0.009016074680602103</v>
+      </c>
+      <c r="J17">
+        <v>0.009016074680602101</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.01569566666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.047087</v>
+      </c>
+      <c r="O17">
+        <v>0.009016074680602103</v>
+      </c>
+      <c r="P17">
+        <v>0.009016074680602101</v>
+      </c>
+      <c r="Q17">
+        <v>0.0002463539521111111</v>
+      </c>
+      <c r="R17">
+        <v>0.002217185569</v>
+      </c>
+      <c r="S17">
+        <v>8.128960264619431E-05</v>
+      </c>
+      <c r="T17">
+        <v>8.128960264619429E-05</v>
       </c>
     </row>
   </sheetData>
